--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_original/ori4/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_original/ori4/42/word_level_predictions_42.xlsx
@@ -29,12 +29,17 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFB6B6"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,11 +60,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -623,7 +629,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -647,57 +653,57 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="A5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>mode</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="G5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4448,470 +4454,470 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
+      <c r="A78" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C78" s="2" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D78" t="n">
+      <c r="D78" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E78" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F78" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" t="inlineStr">
+      <c r="G78" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C79" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D79" t="n">
+      <c r="D79" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E79" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="F79" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
+      <c r="G79" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>display</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F80" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
+      <c r="A81" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C81" s="2" t="inlineStr">
         <is>
           <t>nearby</t>
         </is>
       </c>
-      <c r="D81" t="n">
+      <c r="D81" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="E81" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G81" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I81" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K81" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L81" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>manned</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E82" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I81" t="b">
-        <v>1</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K81" t="b">
-        <v>1</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G82" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I82" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K82" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L82" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B83" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>manned</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>8</v>
-      </c>
-      <c r="E82" t="inlineStr">
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>aircraft</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E83" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I83" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K83" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L83" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E84" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G82" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I82" t="b">
-        <v>1</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K82" t="b">
-        <v>1</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I84" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K84" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L84" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B85" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>aircraft</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>9</v>
-      </c>
-      <c r="E83" t="inlineStr">
+      <c r="C85" s="2" t="inlineStr">
+        <is>
+          <t>anti-collision</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E85" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I83" t="b">
-        <v>1</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K83" t="b">
-        <v>1</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I85" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K85" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L85" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B86" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>10</v>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I84" t="b">
-        <v>1</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K84" t="b">
-        <v>1</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>3</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>anti-collision</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>11</v>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G85" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I85" t="b">
-        <v>1</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K85" t="b">
-        <v>1</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>3</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
+      <c r="C86" s="2" t="inlineStr">
         <is>
           <t>warnings</t>
         </is>
       </c>
-      <c r="D86" t="n">
+      <c r="D86" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="E86" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I86" t="b">
-        <v>1</v>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K86" t="b">
-        <v>1</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G86" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I86" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K86" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L86" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11468,520 +11474,520 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="n">
+      <c r="A213" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="B213" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
+      <c r="C213" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D213" t="n">
+      <c r="D213" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E213" t="inlineStr">
+      <c r="E213" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G213" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I213" t="b">
-        <v>1</v>
-      </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K213" t="b">
-        <v>1</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F213" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G213" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J213" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L213" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="n">
+      <c r="A214" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B214" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="C214" s="2" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D214" t="n">
+      <c r="D214" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K214" t="b">
-        <v>1</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E214" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F214" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J214" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L214" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="n">
+      <c r="A215" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B215" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
+      <c r="C215" s="2" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="D215" t="n">
+      <c r="D215" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G215" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K215" t="b">
-        <v>1</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J215" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L215" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="n">
+      <c r="A216" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B216" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
+      <c r="C216" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D216" t="n">
+      <c r="D216" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K216" t="b">
-        <v>1</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F216" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J216" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L216" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n">
+      <c r="A217" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B217" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
+      <c r="C217" s="2" t="inlineStr">
         <is>
           <t>violation</t>
         </is>
       </c>
-      <c r="D217" t="n">
+      <c r="D217" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K217" t="b">
-        <v>1</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J217" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L217" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="n">
+      <c r="A218" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="B218" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
+      <c r="C218" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D218" t="n">
+      <c r="D218" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G218" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K218" t="b">
-        <v>1</v>
-      </c>
-      <c r="L218" t="inlineStr">
+      <c r="E218" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F218" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J218" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L218" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="n">
+      <c r="A219" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B219" t="inlineStr">
+      <c r="B219" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr">
+      <c r="C219" s="2" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D219" t="n">
+      <c r="D219" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G219" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I219" t="b">
-        <v>1</v>
-      </c>
-      <c r="J219" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K219" t="b">
-        <v>1</v>
-      </c>
-      <c r="L219" t="inlineStr">
+      <c r="E219" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F219" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G219" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I219" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J219" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K219" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L219" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="n">
+      <c r="A220" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B220" t="inlineStr">
+      <c r="B220" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
+      <c r="C220" s="2" t="inlineStr">
         <is>
           <t>laws</t>
         </is>
       </c>
-      <c r="D220" t="n">
+      <c r="D220" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G220" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I220" t="b">
-        <v>1</v>
-      </c>
-      <c r="J220" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K220" t="b">
-        <v>1</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E220" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F220" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G220" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J220" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L220" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="n">
+      <c r="A221" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B221" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
+      <c r="C221" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D221" t="n">
+      <c r="D221" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G221" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I221" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K221" t="b">
-        <v>1</v>
-      </c>
-      <c r="L221" t="inlineStr">
+      <c r="E221" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F221" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G221" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J221" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L221" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="n">
+      <c r="A222" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="B222" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
+      <c r="C222" s="2" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D222" t="n">
+      <c r="D222" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E222" t="inlineStr">
+      <c r="E222" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
+      <c r="F222" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G222" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I222" t="b">
-        <v>1</v>
-      </c>
-      <c r="J222" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K222" t="b">
-        <v>1</v>
-      </c>
-      <c r="L222" t="inlineStr">
+      <c r="G222" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J222" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L222" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_original/ori4/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_original/ori4/42/word_level_predictions_42.xlsx
@@ -29,17 +29,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFB6B6"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -60,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -629,81 +623,81 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>mode</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>mode</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4454,470 +4448,470 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" t="n">
         <v>3</v>
       </c>
-      <c r="B78" s="2" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C78" s="2" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D78" s="2" t="n">
+      <c r="D78" t="n">
         <v>4</v>
       </c>
-      <c r="E78" s="2" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F78" s="2" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G78" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L78" s="2" t="inlineStr">
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" t="n">
         <v>3</v>
       </c>
-      <c r="B79" s="2" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C79" s="2" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D79" s="2" t="n">
+      <c r="D79" t="n">
         <v>5</v>
       </c>
-      <c r="E79" s="2" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F79" s="2" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G79" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L79" s="2" t="inlineStr">
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="A80" t="n">
         <v>3</v>
       </c>
-      <c r="B80" s="2" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C80" s="2" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>display</t>
         </is>
       </c>
-      <c r="D80" s="2" t="n">
+      <c r="D80" t="n">
         <v>6</v>
       </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
+      <c r="A81" t="n">
         <v>3</v>
       </c>
-      <c r="B81" s="2" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C81" s="2" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>nearby</t>
         </is>
       </c>
-      <c r="D81" s="2" t="n">
+      <c r="D81" t="n">
         <v>7</v>
       </c>
-      <c r="E81" s="2" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F81" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G81" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I81" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K81" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L81" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I81" t="b">
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K81" t="b">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n">
+      <c r="A82" t="n">
         <v>3</v>
       </c>
-      <c r="B82" s="2" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C82" s="2" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>manned</t>
         </is>
       </c>
-      <c r="D82" s="2" t="n">
+      <c r="D82" t="n">
         <v>8</v>
       </c>
-      <c r="E82" s="2" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F82" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G82" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I82" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K82" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L82" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I82" t="b">
+        <v>1</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K82" t="b">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
+      <c r="A83" t="n">
         <v>3</v>
       </c>
-      <c r="B83" s="2" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C83" s="2" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D83" s="2" t="n">
+      <c r="D83" t="n">
         <v>9</v>
       </c>
-      <c r="E83" s="2" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F83" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G83" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I83" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K83" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L83" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I83" t="b">
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K83" t="b">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
+      <c r="A84" t="n">
         <v>3</v>
       </c>
-      <c r="B84" s="2" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C84" s="2" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D84" s="2" t="n">
+      <c r="D84" t="n">
         <v>10</v>
       </c>
-      <c r="E84" s="2" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F84" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G84" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I84" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K84" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L84" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I84" t="b">
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K84" t="b">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n">
+      <c r="A85" t="n">
         <v>3</v>
       </c>
-      <c r="B85" s="2" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C85" s="2" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>anti-collision</t>
         </is>
       </c>
-      <c r="D85" s="2" t="n">
+      <c r="D85" t="n">
         <v>11</v>
       </c>
-      <c r="E85" s="2" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F85" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G85" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I85" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J85" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K85" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L85" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G85" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I85" t="b">
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K85" t="b">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n">
+      <c r="A86" t="n">
         <v>3</v>
       </c>
-      <c r="B86" s="2" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C86" s="2" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>warnings</t>
         </is>
       </c>
-      <c r="D86" s="2" t="n">
+      <c r="D86" t="n">
         <v>12</v>
       </c>
-      <c r="E86" s="2" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F86" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G86" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I86" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J86" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K86" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L86" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I86" t="b">
+        <v>1</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K86" t="b">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11474,520 +11468,520 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="n">
+      <c r="A213" t="n">
         <v>12</v>
       </c>
-      <c r="B213" s="2" t="inlineStr">
+      <c r="B213" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C213" s="2" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D213" s="2" t="n">
+      <c r="D213" t="n">
         <v>5</v>
       </c>
-      <c r="E213" s="2" t="inlineStr">
+      <c r="E213" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F213" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G213" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L213" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G213" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I213" t="b">
+        <v>1</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K213" t="b">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n">
+      <c r="A214" t="n">
         <v>12</v>
       </c>
-      <c r="B214" s="2" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C214" s="2" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D214" s="2" t="n">
+      <c r="D214" t="n">
         <v>6</v>
       </c>
-      <c r="E214" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F214" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L214" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K214" t="b">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="2" t="n">
+      <c r="A215" t="n">
         <v>12</v>
       </c>
-      <c r="B215" s="2" t="inlineStr">
+      <c r="B215" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C215" s="2" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="D215" s="2" t="n">
+      <c r="D215" t="n">
         <v>7</v>
       </c>
-      <c r="E215" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G215" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L215" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G215" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K215" t="b">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="2" t="n">
+      <c r="A216" t="n">
         <v>12</v>
       </c>
-      <c r="B216" s="2" t="inlineStr">
+      <c r="B216" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C216" s="2" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D216" s="2" t="n">
+      <c r="D216" t="n">
         <v>8</v>
       </c>
-      <c r="E216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G216" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L216" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K216" t="b">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="2" t="n">
+      <c r="A217" t="n">
         <v>12</v>
       </c>
-      <c r="B217" s="2" t="inlineStr">
+      <c r="B217" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C217" s="2" t="inlineStr">
+      <c r="C217" t="inlineStr">
         <is>
           <t>violation</t>
         </is>
       </c>
-      <c r="D217" s="2" t="n">
+      <c r="D217" t="n">
         <v>9</v>
       </c>
-      <c r="E217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G217" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L217" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K217" t="b">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="n">
+      <c r="A218" t="n">
         <v>12</v>
       </c>
-      <c r="B218" s="2" t="inlineStr">
+      <c r="B218" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C218" s="2" t="inlineStr">
+      <c r="C218" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D218" s="2" t="n">
+      <c r="D218" t="n">
         <v>10</v>
       </c>
-      <c r="E218" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F218" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G218" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L218" s="2" t="inlineStr">
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G218" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K218" t="b">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="2" t="n">
+      <c r="A219" t="n">
         <v>12</v>
       </c>
-      <c r="B219" s="2" t="inlineStr">
+      <c r="B219" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C219" s="2" t="inlineStr">
+      <c r="C219" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D219" s="2" t="n">
+      <c r="D219" t="n">
         <v>11</v>
       </c>
-      <c r="E219" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F219" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G219" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I219" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J219" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K219" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L219" s="2" t="inlineStr">
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G219" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I219" t="b">
+        <v>1</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K219" t="b">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="2" t="n">
+      <c r="A220" t="n">
         <v>12</v>
       </c>
-      <c r="B220" s="2" t="inlineStr">
+      <c r="B220" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C220" s="2" t="inlineStr">
+      <c r="C220" t="inlineStr">
         <is>
           <t>laws</t>
         </is>
       </c>
-      <c r="D220" s="2" t="n">
+      <c r="D220" t="n">
         <v>12</v>
       </c>
-      <c r="E220" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F220" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G220" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J220" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L220" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G220" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I220" t="b">
+        <v>1</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K220" t="b">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="2" t="n">
+      <c r="A221" t="n">
         <v>12</v>
       </c>
-      <c r="B221" s="2" t="inlineStr">
+      <c r="B221" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C221" s="2" t="inlineStr">
+      <c r="C221" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D221" s="2" t="n">
+      <c r="D221" t="n">
         <v>13</v>
       </c>
-      <c r="E221" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F221" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G221" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L221" s="2" t="inlineStr">
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G221" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I221" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K221" t="b">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="2" t="n">
+      <c r="A222" t="n">
         <v>12</v>
       </c>
-      <c r="B222" s="2" t="inlineStr">
+      <c r="B222" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C222" s="2" t="inlineStr">
+      <c r="C222" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D222" s="2" t="n">
+      <c r="D222" t="n">
         <v>14</v>
       </c>
-      <c r="E222" s="2" t="inlineStr">
+      <c r="E222" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F222" s="2" t="inlineStr">
+      <c r="F222" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G222" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J222" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L222" s="2" t="inlineStr">
+      <c r="G222" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I222" t="b">
+        <v>1</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K222" t="b">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
